--- a/all_annotated/ANET_Q1_2020_3.xlsx
+++ b/all_annotated/ANET_Q1_2020_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhruv/Desktop/SubjECTive-QA/Dhruv-annotations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/all_annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C54790-055A-AB46-A374-F44B207A9E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F920FF-2CD8-154D-A65A-71CC296F7133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -690,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1146,6 +1146,38 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
@@ -1154,25 +1186,25 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1186,16 +1218,16 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1207,24 +1239,24 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1236,10 +1268,10 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1247,13 +1279,13 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1279,80 +1311,80 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1372,19 +1404,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1396,24 +1428,24 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1428,27 +1460,27 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1460,10 +1492,10 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1471,13 +1503,13 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1489,27 +1521,27 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1521,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1538,10 +1570,10 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1553,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -1564,63 +1596,63 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1628,22 +1660,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1652,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1660,19 +1692,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1681,27 +1713,27 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1716,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -1730,80 +1762,80 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1815,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1826,25 +1858,25 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -1852,16 +1884,16 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1870,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1887,19 +1919,19 @@
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
         <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1911,38 +1943,6 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
         <v>0</v>
       </c>
     </row>
